--- a/data/protein_predictions_4noback_tmhmm3.xlsx
+++ b/data/protein_predictions_4noback_tmhmm3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michiel/OneDrive - Hanzehogeschool Groningen/courses/ILST_minor_Thema11_intro_R/public/presentations/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/m_a_noback_pl_hanze_nl/Documents/courses/R_courses/intros/BML_intro_lessons/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{46D48BD7-52E8-1644-8AFC-1245DDE75F73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{450CE94A-760A-6445-989E-5E516FB37983}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{46D48BD7-52E8-1644-8AFC-1245DDE75F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68313099-17AD-F34B-9B61-112F2955DCBB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38260" yWindow="460" windowWidth="37580" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -4173,7 +4173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4359,6 +4359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4520,7 +4526,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4539,6 +4545,7 @@
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4896,14 +4903,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B259" workbookViewId="0">
-      <selection activeCell="H274" sqref="A274:XFD274"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="124" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="80.1640625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
@@ -5194,7 +5201,7 @@
       <c r="C5" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="18">
         <v>0.13100000000000001</v>
       </c>
       <c r="E5" s="2">
@@ -30153,7 +30160,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{3EB1BB6E-47A2-2845-BE80-5DFC4D1CC261}"/>
-  <sortState ref="A2:P388">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P388">
     <sortCondition ref="A2:A388"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
